--- a/OnBoard/output/trust/catch/Catch_Trust_70.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_70.xlsx
@@ -1638,7 +1638,7 @@
         <v>0.029</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I31">
         <v>3.74125</v>
@@ -1679,7 +1679,7 @@
         <v>0.01</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I32">
         <v>3.74125</v>
@@ -1761,7 +1761,7 @@
         <v>0.008</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34">
         <v>3.74125</v>
@@ -2048,7 +2048,7 @@
         <v>2.21</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I41">
         <v>3.74125</v>
@@ -2130,7 +2130,7 @@
         <v>0.62</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43">
         <v>3.74125</v>
